--- a/output_Q1/DF_Partial_Result.xlsx
+++ b/output_Q1/DF_Partial_Result.xlsx
@@ -28,31 +28,31 @@
     <t>rank_test_score</t>
   </si>
   <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 15, 'epochs': 23, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 15, 'epochs': 20, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 20, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 20, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 20, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 23, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 15, 'epochs': 20, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
+    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 23, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
+  </si>
+  <si>
     <t>{'anOptimizer': 'adam', 'batch_size': 15, 'epochs': 23, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 15, 'epochs': 20, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 15, 'epochs': 20, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 15, 'epochs': 23, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 20, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 20, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 20, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 23, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'anOptimizer': 'adam', 'batch_size': 20, 'epochs': 23, 'hidUnit': 256, 'outActivation': 'sigmoid'}</t>
   </si>
   <si>
     <t>{'anOptimizer': 'rmsprop', 'batch_size': 20, 'epochs': 20, 'hidUnit': 128, 'outActivation': 'sigmoid'}</t>
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -561,7 +561,7 @@
         <v>0.9607843160629272</v>
       </c>
       <c r="D5">
-        <v>0.009170716395043688</v>
+        <v>0.01834144872006417</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -569,50 +569,50 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.9607843160629272</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D6">
-        <v>0.009170716395043688</v>
+        <v>0.009170711085026055</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.9607843160629272</v>
+        <v>0.9583333134651184</v>
       </c>
       <c r="D7">
-        <v>0.009170716395043688</v>
+        <v>0.02272945092152168</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.9583333333333334</v>
+        <v>0.9558823704719543</v>
       </c>
       <c r="D8">
-        <v>0.01386482397143675</v>
+        <v>0.01039863905200182</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -620,33 +620,33 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.9583333134651184</v>
+        <v>0.9558823704719543</v>
       </c>
       <c r="D9">
-        <v>0.02272945092152168</v>
+        <v>0.006003657055879005</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.9558823704719543</v>
+        <v>0.9558823506037394</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01039861095410281</v>
       </c>
       <c r="E10">
         <v>9</v>
